--- a/3_random_forest_Tony/var_imp.xlsx
+++ b/3_random_forest_Tony/var_imp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yukua\Documents\GitHub\5220-project\3_random_forest_Tony\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{480EBB11-8849-49E1-8D26-2EBC7F51411E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961FC399-E250-4727-A4C3-D1C83D3360E6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27855" yWindow="-6323" windowWidth="23618" windowHeight="13418" xr2:uid="{AC0707C9-93B6-4E03-80A3-EC0BF876FCA0}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{AC0707C9-93B6-4E03-80A3-EC0BF876FCA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -316,7 +316,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -472,7 +472,7 @@
           <c:order val="1"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:srgbClr val="0070C0"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -802,7 +802,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -817,7 +817,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1529,8 +1529,8 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>157196</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2148840</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>163683</xdr:rowOff>
     </xdr:from>
@@ -1868,8 +1868,8 @@
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/3_random_forest_Tony/var_imp.xlsx
+++ b/3_random_forest_Tony/var_imp.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yukua\Documents\GitHub\5220-project\3_random_forest_Tony\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961FC399-E250-4727-A4C3-D1C83D3360E6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF45A24A-1F0F-40D8-80F0-979D5EEAF384}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{AC0707C9-93B6-4E03-80A3-EC0BF876FCA0}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" activeTab="1" xr2:uid="{AC0707C9-93B6-4E03-80A3-EC0BF876FCA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>obamaapp_2016</t>
   </si>
@@ -182,6 +183,84 @@
   </si>
   <si>
     <t>Police killings of African American: part of broader problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Intercept) </t>
+  </si>
+  <si>
+    <t>believe votes counted accurately</t>
+  </si>
+  <si>
+    <t>Approve Obama as president in 2016</t>
+  </si>
+  <si>
+    <t>Feeling themometer: Black lives matter</t>
+  </si>
+  <si>
+    <t>Feeling themometer: Feminists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transgender use restrooms with gender they currently identify </t>
+  </si>
+  <si>
+    <t>Transgender use restrooms with gender they born into</t>
+  </si>
+  <si>
+    <t>Police killing of African American: isolated case</t>
+  </si>
+  <si>
+    <t>Police killing of African American: part of broader problems</t>
+  </si>
+  <si>
+    <t>Disagree: Federal Gov to see everyone has health insurance coverage</t>
+  </si>
+  <si>
+    <t>Agree: Federal Gov to see everyone has health insurance coverage</t>
+  </si>
+  <si>
+    <t>Health care reform bill should be expanded</t>
+  </si>
+  <si>
+    <t>Obama admin favors black over white</t>
+  </si>
+  <si>
+    <t>Party ID: independent</t>
+  </si>
+  <si>
+    <t>Party ID: not sure</t>
+  </si>
+  <si>
+    <t>Party ID: Others</t>
+  </si>
+  <si>
+    <t>Party ID: Republican</t>
+  </si>
+  <si>
+    <t>Approve Obama as president in 2012</t>
+  </si>
+  <si>
+    <t>Vote for Barack Obama 2008</t>
+  </si>
+  <si>
+    <t>Vote for John Mccain 2008</t>
+  </si>
+  <si>
+    <t>Vote for other candidate 2008</t>
+  </si>
+  <si>
+    <t>Favorable opinion on Obama 2012</t>
+  </si>
+  <si>
+    <t>Favorable opinion on Obama 2016</t>
+  </si>
+  <si>
+    <t>Favorable opinion on Sanders 2016</t>
+  </si>
+  <si>
+    <t>Vote for Mitt Romney 2012</t>
+  </si>
+  <si>
+    <t>Vote for Other candidate 2012</t>
   </si>
 </sst>
 </file>
@@ -817,7 +896,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -982,7 +1061,445 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>believe votes counted accurately</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Approve Obama as president in 2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Favorable opinion on Obama 2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Favorable opinion on Sanders 2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Feeling themometer: Feminists</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Feeling themometer: Black lives matter</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Transgender use restrooms with gender they currently identify </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Transgender use restrooms with gender they born into</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Police killing of African American: isolated case</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Police killing of African American: part of broader problems</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Disagree: Federal Gov to see everyone has health insurance coverage</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Agree: Federal Gov to see everyone has health insurance coverage</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Health care reform bill should be expanded</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Obama admin favors black over white</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Party ID: independent</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Party ID: not sure</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Party ID: Others</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Party ID: Republican</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Approve Obama as president in 2012</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Vote for Barack Obama 2008</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Vote for John Mccain 2008</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Vote for other candidate 2008</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Favorable opinion on Obama 2012</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Vote for Mitt Romney 2012</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Vote for Other candidate 2012</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.14029652500000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.420635223</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.23282873500000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.3226257000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7.3108269999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.4676059999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.57211306699999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.21347951300000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.247806729</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.31324057700000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.33399949499999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.20929969800000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.38225303300000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.35381275099999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.30381492500000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.49113652800000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.23573234800000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.89556145700000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.104886645</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.30356260200000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.53600344099999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.23897507000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.2513308999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.70773623600000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.70164211799999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-685D-4E02-8E67-1684A5AC8444}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:overlap val="-50"/>
+        <c:axId val="684160368"/>
+        <c:axId val="684160048"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="684160368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="684160048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="684160048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="684160368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1525,6 +2042,556 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="339">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="10800000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1546,6 +2613,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0B92B4B-4623-4EC9-8D95-DC96DB605CF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2482850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FADC785D-A7D7-4C07-B3E4-930106CE82B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1868,7 +2976,7 @@
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="B31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
@@ -2263,4 +3371,232 @@
   <pageSetup scale="67" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012D16AB-9A33-45B1-9E76-3823F7EEA3D3}">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="94.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1">
+        <v>-1.707261498</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2">
+        <v>0.14029652500000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3">
+        <v>-0.420635223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4">
+        <v>-0.23282873500000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5">
+        <v>-9.3226257000000007E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6">
+        <v>-7.3108269999999998E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7">
+        <v>-4.4676059999999998E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8">
+        <v>-0.57211306699999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9">
+        <v>0.21347951300000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10">
+        <v>0.247806729</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11">
+        <v>-0.31324057700000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12">
+        <v>-0.33399949499999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13">
+        <v>-0.20929969800000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14">
+        <v>-0.38225303300000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15">
+        <v>0.35381275099999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16">
+        <v>0.30381492500000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17">
+        <v>0.49113652800000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18">
+        <v>-0.23573234800000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19">
+        <v>0.89556145700000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20">
+        <v>0.104886645</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21">
+        <v>0.30356260200000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22">
+        <v>0.53600344099999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23">
+        <v>0.23897507000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24">
+        <v>3.2513308999999997E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25">
+        <v>0.70773623600000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26">
+        <v>-0.70164211799999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/3_random_forest_Tony/var_imp.xlsx
+++ b/3_random_forest_Tony/var_imp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yukua\Documents\GitHub\5220-project\3_random_forest_Tony\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF45A24A-1F0F-40D8-80F0-979D5EEAF384}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCE4BA3-FBAD-47CC-AC9F-3995DBAF58DF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" activeTab="1" xr2:uid="{AC0707C9-93B6-4E03-80A3-EC0BF876FCA0}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{AC0707C9-93B6-4E03-80A3-EC0BF876FCA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2976,8 +2976,8 @@
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView topLeftCell="B31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L53" sqref="L53"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3377,7 +3377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012D16AB-9A33-45B1-9E76-3823F7EEA3D3}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
